--- a/resources/asper.xlsx
+++ b/resources/asper.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="2" hidden="1">linear!$B$2:$C$9</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">logistic!$B$2:$C$9</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">logistic!$B$2:$C$7</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
@@ -46,7 +46,7 @@
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">linear!$K$2</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">logistic!$N$2</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">logistic!$T$2</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="112">
   <si>
     <t>x0</t>
   </si>
@@ -262,6 +262,162 @@
   </si>
   <si>
     <t>e2</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>010000</t>
+  </si>
+  <si>
+    <t>001000</t>
+  </si>
+  <si>
+    <t>000010</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>110000</t>
+  </si>
+  <si>
+    <t>101000</t>
+  </si>
+  <si>
+    <t>100010</t>
+  </si>
+  <si>
+    <t>100001</t>
+  </si>
+  <si>
+    <t>011000</t>
+  </si>
+  <si>
+    <t>010010</t>
+  </si>
+  <si>
+    <t>010001</t>
+  </si>
+  <si>
+    <t>001010</t>
+  </si>
+  <si>
+    <t>001001</t>
+  </si>
+  <si>
+    <t>000011</t>
+  </si>
+  <si>
+    <t>111000</t>
+  </si>
+  <si>
+    <t>110010</t>
+  </si>
+  <si>
+    <t>110001</t>
+  </si>
+  <si>
+    <t>101010</t>
+  </si>
+  <si>
+    <t>101001</t>
+  </si>
+  <si>
+    <t>100011</t>
+  </si>
+  <si>
+    <t>011010</t>
+  </si>
+  <si>
+    <t>011001</t>
+  </si>
+  <si>
+    <t>010011</t>
+  </si>
+  <si>
+    <t>001011</t>
+  </si>
+  <si>
+    <t>111010</t>
+  </si>
+  <si>
+    <t>111001</t>
+  </si>
+  <si>
+    <t>110011</t>
+  </si>
+  <si>
+    <t>101011</t>
+  </si>
+  <si>
+    <t>011011</t>
+  </si>
+  <si>
+    <t>111011</t>
+  </si>
+  <si>
+    <t>000100</t>
+  </si>
+  <si>
+    <t>100100</t>
+  </si>
+  <si>
+    <t>010100</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>000110</t>
+  </si>
+  <si>
+    <t>110100</t>
+  </si>
+  <si>
+    <t>101100</t>
+  </si>
+  <si>
+    <t>100110</t>
+  </si>
+  <si>
+    <t>011100</t>
+  </si>
+  <si>
+    <t>010110</t>
+  </si>
+  <si>
+    <t>001110</t>
+  </si>
+  <si>
+    <t>111100</t>
+  </si>
+  <si>
+    <t>110110</t>
+  </si>
+  <si>
+    <t>101110</t>
+  </si>
+  <si>
+    <t>011110</t>
+  </si>
+  <si>
+    <t>111110</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>w0</t>
+  </si>
+  <si>
+    <t>w1</t>
+  </si>
+  <si>
+    <t>w1-w0</t>
   </si>
 </sst>
 </file>
@@ -380,7 +536,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet8!$E$1</c:f>
+              <c:f>logistic!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -425,12 +581,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="4.6150481189851267E-4"/>
-                  <c:y val="0.22180555555555556"/>
-                </c:manualLayout>
-              </c:layout>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -463,7 +614,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet8!$B$2:$B$50</c:f>
+              <c:f>logistic!$G$2:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
@@ -471,304 +622,304 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.873</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.71599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.84799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.97199999999999998</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="16">
+                  <c:v>0.81599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.748</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.83199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.749</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.79200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.753</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.61699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.69199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.90900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.92300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.879</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>0.94199999999999995</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.92300000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.90900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.879</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.878</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.873</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.86499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="40">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>0.85799999999999998</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.85499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.85499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.85399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.85199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.84799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.83499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.83199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="42">
+                  <c:v>0.72399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>0.82499999999999996</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.81599999999999995</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.81599999999999995</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.79500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.79300000000000004</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.79200000000000004</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.78500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.77800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.77800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.77300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.77200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.753</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.749</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.748</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.745</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.72399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.71599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.69199999999999995</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="45">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>0.68600000000000005</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.67100000000000004</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.66500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.64900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.64500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.64300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.64300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>0.64</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>0.622</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.61699999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet8!$E$2:$E$50</c:f>
+              <c:f>logistic!$P$2:$P$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>0.90876230817690118</c:v>
+                  <c:v>0.7310585786300049</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76898956177639444</c:v>
+                  <c:v>0.72573045574789374</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86400546375998688</c:v>
+                  <c:v>0.71383204546516044</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89395672073804877</c:v>
+                  <c:v>0.71733590953749549</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90317992581162287</c:v>
+                  <c:v>0.69806918446123412</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85234284115294678</c:v>
+                  <c:v>0.71908262585089577</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90001201593767632</c:v>
+                  <c:v>0.70829881572429243</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.881409394364564</c:v>
+                  <c:v>0.71184308033810151</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88244288830795337</c:v>
+                  <c:v>0.6923625220864863</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.86040331261293601</c:v>
+                  <c:v>0.71361018810635346</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.82799840142475678</c:v>
+                  <c:v>0.69959158927680742</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.87547082058599157</c:v>
+                  <c:v>0.67965551125671209</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.79319371753356283</c:v>
+                  <c:v>0.70140231313040458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.8715252465459834</c:v>
+                  <c:v>0.68339223485903899</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.86463740040624493</c:v>
+                  <c:v>0.70499547221362668</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.8492061127077315</c:v>
+                  <c:v>0.68525667213094554</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.87212741194006504</c:v>
+                  <c:v>0.69390108385824312</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.83577618456452818</c:v>
+                  <c:v>0.67376346830552791</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.81309539310483481</c:v>
+                  <c:v>0.69573118969609116</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.86107610676217261</c:v>
+                  <c:v>0.67753631228601885</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.83713387918667714</c:v>
+                  <c:v>0.69936334139849332</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.82285306385713364</c:v>
+                  <c:v>0.67941905719504991</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.80931144656399412</c:v>
+                  <c:v>0.66451364237321919</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.77334956001925725</c:v>
+                  <c:v>0.68681469648281646</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.89159157227536956</c:v>
+                  <c:v>0.66643498844003624</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.84851475707958413</c:v>
+                  <c:v>0.67025110567270718</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.79060558999823827</c:v>
+                  <c:v>0.65848304066648666</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.75236803505059346</c:v>
+                  <c:v>0.68099252614330319</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.75236803505059346</c:v>
+                  <c:v>0.6604212749525703</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.78463261715586641</c:v>
+                  <c:v>0.66427153260996596</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.80125038240991187</c:v>
+                  <c:v>0.65098911263100556</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.75051430269417674</c:v>
+                  <c:v>0.64484533168448721</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.73302496390210914</c:v>
+                  <c:v>0.72427956115402414</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.71384984921162709</c:v>
+                  <c:v>0.7188687824370712</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.7399548581736537</c:v>
+                  <c:v>0.70679296314497231</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.72108809007047969</c:v>
+                  <c:v>0.71034804214122138</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.73407821289340536</c:v>
+                  <c:v>0.68339223485903899</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.69392026991138356</c:v>
+                  <c:v>0.69081031342388599</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.65278650799896187</c:v>
+                  <c:v>0.70118060379125646</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.72000301511261933</c:v>
+                  <c:v>0.70477530785422937</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.71499499963644286</c:v>
+                  <c:v>0.68502835802884121</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.70027504289096687</c:v>
+                  <c:v>0.69235318871914764</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.67318871663693347</c:v>
+                  <c:v>0.67216185193211342</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.60821069150545348</c:v>
+                  <c:v>0.67594430965734331</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.75051430269417674</c:v>
+                  <c:v>0.6865869956589632</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.63205769086298846</c:v>
+                  <c:v>0.66619967184322271</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.66083548481979604</c:v>
+                  <c:v>0.67001714820050706</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.63778476410655127</c:v>
+                  <c:v>0.65684461415688555</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.67536847759789431</c:v>
+                  <c:v>0.65074860997416417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -783,13 +934,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="408406400"/>
-        <c:axId val="408404048"/>
+        <c:axId val="666743616"/>
+        <c:axId val="666742832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="408406400"/>
+        <c:axId val="666743616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
           <c:min val="0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -845,12 +997,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408404048"/>
+        <c:crossAx val="666742832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="408404048"/>
+        <c:axId val="666742832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -907,7 +1059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408406400"/>
+        <c:crossAx val="666743616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1012,6 +1164,1219 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>logistic!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>logistic!$G$2:$G$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.873</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.71599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.84799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.81599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.748</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.83199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.749</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.79200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.753</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.61699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.69199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.90900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.92300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.879</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.72399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.68600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.622</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>logistic!$N$2:$N$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97306731183018413</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91406881215536773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93128499081735372</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83812031247948582</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93991568493185451</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88713612398555208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90435230264753785</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81118762430966995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91298299676203865</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84535380297272167</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75218912463485355</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85398449708722224</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.76940530329683954</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.87120067574920823</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.77803599741134033</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8184211148029058</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72525643646503779</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82705180891740637</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.74247261512702367</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.84426798757939236</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.75110330924152446</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.68347411545220738</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.78526948790457607</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.69210480956670806</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.70932098822869405</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.65654142728239151</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7583367997347602</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.6651721213968923</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.68238830005887818</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.62338980038406189</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.59645711221424602</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.96579000239319657</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.9388573142233807</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.87985881454856441</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.89707499321055018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.76940530329683954</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.80391031487268239</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.85292612637874854</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.87014230504073453</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77697762670286652</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.81114380536591812</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.71797912702805022</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.7351953056900361</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.78421111719610226</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.69104643885823436</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.70826261752022035</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.64926411784540394</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.62233142967558808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="668879048"/>
+        <c:axId val="668877088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="668879048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668877088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="668877088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668879048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet8!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.6150481189851267E-4"/>
+                  <c:y val="0.22180555555555556"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet8!$B$2:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.879</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.878</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.84799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.83499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.81599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.81599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.79300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.79200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.77200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.753</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.749</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.748</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.72399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.71599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.69199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.68600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.622</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.61699999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet8!$E$2:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>0.90876230817690118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76898956177639444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86400546375998688</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89395672073804877</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90317992581162287</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85234284115294678</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90001201593767632</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.881409394364564</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88244288830795337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86040331261293601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82799840142475678</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87547082058599157</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79319371753356283</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8715252465459834</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.86463740040624493</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8492061127077315</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.87212741194006504</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83577618456452818</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.81309539310483481</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.86107610676217261</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.83713387918667714</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.82285306385713364</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.80931144656399412</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.77334956001925725</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.89159157227536956</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.84851475707958413</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.79060558999823827</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.75236803505059346</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.75236803505059346</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.78463261715586641</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.80125038240991187</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.75051430269417674</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.73302496390210914</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.71384984921162709</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.7399548581736537</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.72108809007047969</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.73407821289340536</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.69392026991138356</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.65278650799896187</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.72000301511261933</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.71499499963644286</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.70027504289096687</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.67318871663693347</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.60821069150545348</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.75051430269417674</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.63205769086298846</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.66083548481979604</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.63778476410655127</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.67536847759789431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="571344736"/>
+        <c:axId val="571342776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="571344736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571342776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="571342776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571344736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>linear!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1429,11 +2794,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="779877056"/>
-        <c:axId val="779874704"/>
+        <c:axId val="571337288"/>
+        <c:axId val="571338464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="779877056"/>
+        <c:axId val="571337288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1492,12 +2857,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="779874704"/>
+        <c:crossAx val="571338464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="779874704"/>
+        <c:axId val="571338464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1554,7 +2919,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="779877056"/>
+        <c:crossAx val="571337288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1683,6 +3048,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2715,7 +4160,1104 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2750,7 +5292,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3048,31 +5590,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="7" max="13" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="F1" t="s">
         <v>51</v>
@@ -3080,1316 +5622,2489 @@
       <c r="G1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>2</v>
+      </c>
+      <c r="K1">
+        <v>3</v>
+      </c>
+      <c r="L1">
+        <v>4</v>
+      </c>
+      <c r="M1">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>57</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>58</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.13232872284414468</v>
+        <v>7.2868293501153611E-3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-5.9180288324533092E-2</v>
       </c>
       <c r="D2">
-        <f>C2-B2</f>
-        <v>-0.13232872284414468</v>
+        <f t="shared" ref="D2:D8" si="0">C2-B2</f>
+        <v>-6.6467117674648454E-2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <f>SUM($B$2:$B$9)</f>
-        <v>2.2986154735951332</v>
+        <f>IF(MID($F2,H$1+1,1)="1",VLOOKUP(H$1,$A$2:$D$7,4),0)</f>
+        <v>0</v>
       </c>
       <c r="I2">
-        <f>G2-H2</f>
-        <v>-1.2986154735951332</v>
+        <f t="shared" ref="I2:M17" si="1">IF(MID($F2,I$1+1,1)="1",VLOOKUP(I$1,$A$2:$D$7,4),0)</f>
+        <v>0</v>
       </c>
       <c r="J2">
-        <f>0.5*(1+TANH(0.5*H2))</f>
-        <v>0.90876230817690118</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K2">
-        <f>G2-J2</f>
-        <v>9.1237691823098821E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N2">
-        <f>SUMSQ(K2:K50)</f>
-        <v>0.10820313594915115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <f>($B$9+SUM(H2:M2))/$B$9</f>
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f>G2-N2</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>0.5*(1+TANH(0.5*N2))</f>
+        <v>0.7310585786300049</v>
+      </c>
+      <c r="Q2">
+        <f>G2-P2</f>
+        <v>0.2689414213699951</v>
+      </c>
+      <c r="T2">
+        <f>SUMSQ(O2:O50)</f>
+        <v>0.137276772311791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.1667785489449368E-3</v>
+        <v>6.0549587961679558E-4</v>
       </c>
       <c r="C3">
-        <v>-9.4090600160751367E-2</v>
+        <v>-0.21146388012840561</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D9" si="0">C3-B3</f>
-        <v>-0.10125737870969631</v>
+        <f t="shared" si="0"/>
+        <v>-0.21206937600802242</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="G3">
         <v>0.878</v>
       </c>
       <c r="H3">
-        <f>SUM($B$2:$B$9)-B3+C3</f>
-        <v>2.1973580948854368</v>
+        <f>IF(MID($F3,H$1+1,1)="1",VLOOKUP(H$1,$A$2:$D$7,4),0)</f>
+        <v>-6.6467117674648454E-2</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I33" si="1">G3-H3</f>
-        <v>-1.3193580948854366</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J33" si="2">0.5*(1+TANH(0.5*H3))</f>
-        <v>0.90001201593767632</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K33" si="3">G3-J3</f>
-        <v>-2.2012015937676321E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N50" si="2">($B$9+SUM(H3:M3))/$B$9</f>
+        <v>0.97306731183018413</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O33" si="3">G3-N3</f>
+        <v>-9.5067311830184131E-2</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P33" si="4">0.5*(1+TANH(0.5*N3))</f>
+        <v>0.72573045574789374</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q33" si="5">G3-P3</f>
+        <v>0.15226954425210626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.0491077532344201E-4</v>
+        <v>0.10266230023321381</v>
       </c>
       <c r="C4">
-        <v>-0.37810939736688182</v>
+        <v>-6.6919309020190706E-2</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>-0.37871430814220525</v>
+        <v>-0.16958160925340451</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="G4">
         <v>0.83499999999999996</v>
       </c>
       <c r="H4">
-        <f>SUM($B$2:$B$9)-B4+C4</f>
-        <v>1.9199011654529277</v>
+        <f t="shared" ref="H4:M19" si="6">IF(MID($F4,H$1+1,1)="1",VLOOKUP(H$1,$A$2:$D$7,4),0)</f>
+        <v>0</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>-1.0849011654529277</v>
+        <v>-0.21206937600802242</v>
       </c>
       <c r="J4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N4">
         <f t="shared" si="2"/>
-        <v>0.87212741194006504</v>
-      </c>
-      <c r="K4">
+        <v>0.91406881215536773</v>
+      </c>
+      <c r="O4">
         <f t="shared" si="3"/>
-        <v>-3.712741194006508E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-7.9068812155367763E-2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="4"/>
+        <v>0.71383204546516044</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="5"/>
+        <v>0.12116795453483953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.15035966101051268</v>
+        <v>0.13298399700783031</v>
       </c>
       <c r="C5">
-        <v>-0.13248601412006486</v>
+        <v>4.8557224520663606E-2</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>-0.28284567513057757</v>
+        <v>-8.4426772487166707E-2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>0.87</v>
       </c>
       <c r="H5">
-        <f>SUM($B$2:$B$9)-B5+C5</f>
-        <v>2.015769798464556</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>-1.1457697984645558</v>
+        <v>0</v>
       </c>
       <c r="J5">
+        <f t="shared" si="1"/>
+        <v>-0.16958160925340451</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
         <f t="shared" si="2"/>
-        <v>0.88244288830795337</v>
-      </c>
-      <c r="K5">
+        <v>0.93128499081735372</v>
+      </c>
+      <c r="O5">
         <f t="shared" si="3"/>
-        <v>-1.244288830795337E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-6.1284990817353724E-2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="4"/>
+        <v>0.71733590953749549</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>0.15266409046250451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.11230584474104954</v>
+        <v>0.41123439452994176</v>
       </c>
       <c r="C6">
-        <v>4.6757807343290492E-2</v>
+        <v>1.1731895124034367E-2</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>-6.5548037397759051E-2</v>
+        <f>C6-B6</f>
+        <v>-0.39950249940590737</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="G6">
         <v>0.77200000000000002</v>
       </c>
       <c r="H6">
-        <f>SUM($B$2:$B$9)-B8+C8</f>
-        <v>1.3941276560438647</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>-0.62212765604386466</v>
+        <v>0</v>
       </c>
       <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>-0.39950249940590737</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="2"/>
-        <v>0.80125038240991187</v>
-      </c>
-      <c r="K6">
+        <v>0.83812031247948582</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="3"/>
-        <v>-2.9250382409911846E-2</v>
-      </c>
-      <c r="N6">
-        <f>MAX(J:J)</f>
-        <v>0.90876230817690118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-6.6120312479485799E-2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>0.69806918446123412</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>7.3930815538765904E-2</v>
+      </c>
+      <c r="T6">
+        <f>MAX(P:P)</f>
+        <v>0.7310585786300049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.13232872277469215</v>
+        <v>1.8131246267680872</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1.6648426871839483</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>-0.13232872277469215</v>
+        <f>C7-B7</f>
+        <v>-0.14828193958413882</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="G7">
         <v>0.79300000000000004</v>
       </c>
       <c r="H7">
-        <f>SUM($B$2:$B$9)-B9+C9</f>
-        <v>2.1071023165859089</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>-1.3141023165859087</v>
+        <v>0</v>
       </c>
       <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>-0.14828193958413882</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="2"/>
-        <v>0.89159157227536956</v>
-      </c>
-      <c r="K7">
+        <v>0.93991568493185451</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="3"/>
-        <v>-9.8591572275369521E-2</v>
-      </c>
-      <c r="N7">
-        <f>MIN(J:J)</f>
-        <v>0.60821069150545348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.91582444048801004</v>
-      </c>
-      <c r="C8">
-        <v>1.1336622936741463E-2</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>-0.90448781755126861</v>
-      </c>
+        <v>-0.14691568493185447</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>0.71908262585089577</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>7.3917374149104265E-2</v>
+      </c>
+      <c r="T7">
+        <f>MIN(P:P)</f>
+        <v>0.64484533168448721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F8" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="G8">
         <v>0.86499999999999999</v>
       </c>
       <c r="H8">
-        <f>SUM($B$2:$B$9)-B3-B4+C3+C4</f>
-        <v>1.8186437867432312</v>
+        <f t="shared" si="6"/>
+        <v>-6.6467117674648454E-2</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>-0.95364378674323125</v>
+        <v>-0.21206937600802242</v>
       </c>
       <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="2"/>
-        <v>0.86040331261293601</v>
-      </c>
-      <c r="K8">
+        <v>0.88713612398555208</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="3"/>
-        <v>4.5966873870639802E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
+        <v>-2.2136123985552092E-2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>0.70829881572429243</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>0.15670118427570756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>0.84769639241245565</v>
-      </c>
-      <c r="C9">
-        <v>0.65618323540323154</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>-0.19151315700922411</v>
+        <f>SUM(B2:B7)</f>
+        <v>2.4678976437688052</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="G9">
         <v>0.85399999999999998</v>
       </c>
       <c r="H9">
-        <f>SUM($B$2:$B$9)-B3-B5+C3+C5</f>
-        <v>1.9145124197548595</v>
+        <f t="shared" si="6"/>
+        <v>-6.6467117674648454E-2</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>-1.0605124197548594</v>
+        <v>0</v>
       </c>
       <c r="J9">
+        <f t="shared" si="1"/>
+        <v>-0.16958160925340451</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="2"/>
-        <v>0.8715252465459834</v>
-      </c>
-      <c r="K9">
+        <v>0.90435230264753785</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="3"/>
-        <v>-1.7525246545983419E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-5.0352302647537872E-2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>0.71184308033810151</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>0.14215691966189847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="G10">
         <v>0.77300000000000002</v>
       </c>
       <c r="H10">
-        <f>SUM($B$2:$B$9)-B3+C3-B8+C8</f>
-        <v>1.2928702773341683</v>
+        <f t="shared" si="6"/>
+        <v>-6.6467117674648454E-2</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>-0.51987027733416824</v>
+        <v>0</v>
       </c>
       <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>-0.39950249940590737</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="2"/>
-        <v>0.78463261715586641</v>
-      </c>
-      <c r="K10">
+        <v>0.81118762430966995</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="3"/>
-        <v>-1.1632617155866387E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-3.8187624309669932E-2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>0.6923625220864863</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>8.0637477913513722E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F11" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="G11">
         <v>0.873</v>
       </c>
       <c r="H11">
-        <f>SUM($B$2:$B$9)-B3+C3-B9+C9</f>
-        <v>2.0058449378762129</v>
+        <f t="shared" si="6"/>
+        <v>-6.6467117674648454E-2</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>-1.1328449378762129</v>
+        <v>0</v>
       </c>
       <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>-0.14828193958413882</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="2"/>
-        <v>0.881409394364564</v>
-      </c>
-      <c r="K11">
+        <v>0.91298299676203865</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="3"/>
-        <v>-8.4093943645640046E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-3.9982996762038647E-2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>0.71361018810635346</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>0.15938981189364654</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>0.81599999999999995</v>
       </c>
       <c r="H12">
-        <f>SUM($B$2:$B$9)-B4+C4-B5+C5</f>
-        <v>1.6370554903223502</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>-0.82105549032235026</v>
+        <v>-0.21206937600802242</v>
       </c>
       <c r="J12">
+        <f t="shared" si="1"/>
+        <v>-0.16958160925340451</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="2"/>
-        <v>0.83713387918667714</v>
-      </c>
-      <c r="K12">
+        <v>0.84535380297272167</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="3"/>
-        <v>-2.1133879186677196E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-2.9353802972721721E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>0.69959158927680742</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>0.11640841072319252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="G13">
         <v>0.71599999999999997</v>
       </c>
       <c r="H13">
-        <f>SUM($B$2:$B$9)-B4+C4-B8+C8</f>
-        <v>1.0154133479016592</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>-0.29941334790165919</v>
+        <v>-0.21206937600802242</v>
       </c>
       <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>-0.39950249940590737</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="2"/>
-        <v>0.73407821289340536</v>
-      </c>
-      <c r="K13">
+        <v>0.75218912463485355</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="3"/>
-        <v>-1.8078212893405388E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-3.6189124634853576E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>0.67965551125671209</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>3.6344488743287884E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="G14">
         <v>0.84799999999999998</v>
       </c>
       <c r="H14">
-        <f>SUM($B$2:$B$9)-B4+C4-B9+C9</f>
-        <v>1.7283880084437035</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>-0.88038800844370357</v>
+        <v>-0.21206937600802242</v>
       </c>
       <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>-0.14828193958413882</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="2"/>
-        <v>0.8492061127077315</v>
-      </c>
-      <c r="K14">
+        <v>0.85398449708722224</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="3"/>
-        <v>-1.2061127077315215E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-5.9844970872222625E-3</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>0.70140231313040458</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>0.1465976868695954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F15" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="G15">
         <v>0.77800000000000002</v>
       </c>
       <c r="H15">
-        <f>SUM($B$2:$B$9)-B5+C5-B8+C8</f>
-        <v>1.1112819809132874</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>-0.33328198091328742</v>
+        <v>0</v>
       </c>
       <c r="J15">
+        <f t="shared" si="1"/>
+        <v>-0.16958160925340451</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>-0.39950249940590737</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="2"/>
-        <v>0.75236803505059346</v>
-      </c>
-      <c r="K15">
+        <v>0.76940530329683954</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="3"/>
-        <v>2.563196494940656E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8.5946967031604871E-3</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>0.68339223485903899</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>9.4607765140961031E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F16" s="1" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="G16">
         <v>0.82</v>
       </c>
       <c r="H16">
-        <f>SUM($B$2:$B$9)-B5+C5-B9+C9</f>
-        <v>1.8242566414553318</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>-1.0042566414553318</v>
+        <v>0</v>
       </c>
       <c r="J16">
+        <f t="shared" si="1"/>
+        <v>-0.16958160925340451</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>-0.14828193958413882</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="2"/>
-        <v>0.86107610676217261</v>
-      </c>
-      <c r="K16">
+        <v>0.87120067574920823</v>
+      </c>
+      <c r="O16">
         <f t="shared" si="3"/>
-        <v>-4.1076106762172659E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
+        <v>-5.120067574920828E-2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>0.70499547221362668</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>0.11500452778637327</v>
+      </c>
+    </row>
+    <row r="17" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F17" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="G17">
         <v>0.97199999999999998</v>
       </c>
       <c r="H17">
-        <f>SUM($B$2:$B$9)-B8+C8-B9+C9</f>
-        <v>1.2026144990346406</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>-0.2306144990346406</v>
+        <v>0</v>
       </c>
       <c r="J17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>-0.39950249940590737</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>-0.14828193958413882</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="2"/>
-        <v>0.76898956177639444</v>
-      </c>
-      <c r="K17">
+        <v>0.77803599741134033</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="3"/>
-        <v>0.20301043822360554</v>
-      </c>
-    </row>
-    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
+        <v>0.19396400258865965</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>0.68525667213094554</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>0.28674332786905443</v>
+      </c>
+    </row>
+    <row r="18" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F18" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="G18">
         <v>0.81599999999999995</v>
       </c>
       <c r="H18">
-        <f>SUM($B$2:$B$9)-B3+C3-B4+C4-B5+C5</f>
-        <v>1.5357981116126538</v>
+        <f t="shared" si="6"/>
+        <v>-6.6467117674648454E-2</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
-        <v>-0.71979811161265383</v>
+        <f t="shared" si="6"/>
+        <v>-0.21206937600802242</v>
       </c>
       <c r="J18">
+        <f t="shared" si="6"/>
+        <v>-0.16958160925340451</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="2"/>
-        <v>0.82285306385713364</v>
-      </c>
-      <c r="K18">
+        <v>0.8184211148029058</v>
+      </c>
+      <c r="O18">
         <f t="shared" si="3"/>
-        <v>-6.8530638571336899E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+        <v>-2.4211148029058549E-3</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>0.69390108385824312</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="5"/>
+        <v>0.12209891614175683</v>
+      </c>
+    </row>
+    <row r="19" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F19" s="1" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="G19">
         <v>0.748</v>
       </c>
       <c r="H19">
-        <f>SUM($B$2:$B$9)-B3+C3-B4+C4-B8+C8</f>
-        <v>0.91415596919196263</v>
+        <f t="shared" si="6"/>
+        <v>-6.6467117674648454E-2</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
-        <v>-0.16615596919196263</v>
+        <f t="shared" si="6"/>
+        <v>-0.21206937600802242</v>
       </c>
       <c r="J19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="6"/>
+        <v>-0.39950249940590737</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="2"/>
-        <v>0.71384984921162709</v>
-      </c>
-      <c r="K19">
+        <v>0.72525643646503779</v>
+      </c>
+      <c r="O19">
         <f t="shared" si="3"/>
-        <v>3.4150150788372913E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
+        <v>2.2743563534962208E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="4"/>
+        <v>0.67376346830552791</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="5"/>
+        <v>7.4236531694472085E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F20" s="1" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="G20">
         <v>0.83199999999999996</v>
       </c>
       <c r="H20">
-        <f>SUM($B$2:$B$9)-B3+C3-B4+C4-B9+C9</f>
-        <v>1.6271306297340071</v>
+        <f t="shared" ref="H20:M50" si="7">IF(MID($F20,H$1+1,1)="1",VLOOKUP(H$1,$A$2:$D$7,4),0)</f>
+        <v>-6.6467117674648454E-2</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
-        <v>-0.79513062973400717</v>
+        <f t="shared" si="7"/>
+        <v>-0.21206937600802242</v>
       </c>
       <c r="J20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="7"/>
+        <v>-0.14828193958413882</v>
+      </c>
+      <c r="N20">
         <f t="shared" si="2"/>
-        <v>0.83577618456452818</v>
-      </c>
-      <c r="K20">
+        <v>0.82705180891740637</v>
+      </c>
+      <c r="O20">
         <f t="shared" si="3"/>
-        <v>-3.7761845645282177E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
+        <v>4.9481910825935893E-3</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="4"/>
+        <v>0.69573118969609116</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="5"/>
+        <v>0.13626881030390881</v>
+      </c>
+    </row>
+    <row r="21" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F21" s="1" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="G21">
         <v>0.749</v>
       </c>
       <c r="H21">
-        <f>SUM($B$2:$B$9)-B3+C3-B5+C5-B8+C8</f>
-        <v>1.0100246022035906</v>
+        <f t="shared" si="7"/>
+        <v>-6.6467117674648454E-2</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
-        <v>-0.26102460220359058</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="J21">
+        <f t="shared" si="7"/>
+        <v>-0.16958160925340451</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="7"/>
+        <v>-0.39950249940590737</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="2"/>
-        <v>0.73302496390210914</v>
-      </c>
-      <c r="K21">
+        <v>0.74247261512702367</v>
+      </c>
+      <c r="O21">
         <f t="shared" si="3"/>
-        <v>1.597503609789086E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="6:11" x14ac:dyDescent="0.25">
+        <v>6.5273848729763273E-3</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="4"/>
+        <v>0.67753631228601885</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="5"/>
+        <v>7.146368771398115E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F22" s="1" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="G22">
         <v>0.79200000000000004</v>
       </c>
       <c r="H22">
-        <f>SUM($B$2:$B$9)-B3+C3-B5+C5-B9+C9</f>
-        <v>1.722999262745635</v>
+        <f t="shared" si="7"/>
+        <v>-6.6467117674648454E-2</v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
-        <v>-0.93099926274563494</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="J22">
+        <f t="shared" si="7"/>
+        <v>-0.16958160925340451</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="7"/>
+        <v>-0.14828193958413882</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="2"/>
-        <v>0.84851475707958413</v>
-      </c>
-      <c r="K22">
+        <v>0.84426798757939236</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="3"/>
-        <v>-5.6514757079584088E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="6:11" x14ac:dyDescent="0.25">
+        <v>-5.2267987579392328E-2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="4"/>
+        <v>0.69936334139849332</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="5"/>
+        <v>9.2636658601506716E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F23" s="1" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="G23">
         <v>0.753</v>
       </c>
       <c r="H23">
-        <f>SUM($B$2:$B$9)-B3+C3-B8+C8-B9+C9</f>
-        <v>1.1013571203249441</v>
+        <f t="shared" si="7"/>
+        <v>-6.6467117674648454E-2</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
-        <v>-0.34835712032494415</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="J23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="7"/>
+        <v>-0.39950249940590737</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="7"/>
+        <v>-0.14828193958413882</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="2"/>
-        <v>0.75051430269417674</v>
-      </c>
-      <c r="K23">
+        <v>0.75110330924152446</v>
+      </c>
+      <c r="O23">
         <f t="shared" si="3"/>
-        <v>2.4856973058232645E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
+        <v>1.8966907584755388E-3</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="4"/>
+        <v>0.67941905719504991</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="5"/>
+        <v>7.3580942804950089E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F24" s="1" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="G24">
         <v>0.61699999999999999</v>
       </c>
       <c r="H24">
-        <f>SUM($B$2:$B$9)-B4+C4-B5+C5-B8+C8</f>
-        <v>0.73256767277108159</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="I24">
-        <f t="shared" si="1"/>
-        <v>-0.1155676727710816</v>
+        <f t="shared" si="7"/>
+        <v>-0.21206937600802242</v>
       </c>
       <c r="J24">
+        <f t="shared" si="7"/>
+        <v>-0.16958160925340451</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="7"/>
+        <v>-0.39950249940590737</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="2"/>
-        <v>0.67536847759789431</v>
-      </c>
-      <c r="K24">
+        <v>0.68347411545220738</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="3"/>
-        <v>-5.8368477597894319E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="6:11" x14ac:dyDescent="0.25">
+        <v>-6.6474115452207383E-2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="4"/>
+        <v>0.66451364237321919</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="5"/>
+        <v>-4.75136423732192E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F25" s="1" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="G25">
         <v>0.81</v>
       </c>
       <c r="H25">
-        <f>SUM($B$2:$B$9)-B4+C4-B5+C5-B9+C9</f>
-        <v>1.4455423333131261</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
-        <v>-0.63554233331312604</v>
+        <f t="shared" si="7"/>
+        <v>-0.21206937600802242</v>
       </c>
       <c r="J25">
+        <f t="shared" si="7"/>
+        <v>-0.16958160925340451</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="7"/>
+        <v>-0.14828193958413882</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="2"/>
-        <v>0.80931144656399412</v>
-      </c>
-      <c r="K25">
+        <v>0.78526948790457607</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="3"/>
-        <v>6.8855343600593422E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="6:11" x14ac:dyDescent="0.25">
+        <v>2.4730512095423984E-2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>0.68681469648281646</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="5"/>
+        <v>0.1231853035171836</v>
+      </c>
+    </row>
+    <row r="26" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F26" s="1" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="G26">
         <v>0.64300000000000002</v>
       </c>
       <c r="H26">
-        <f>SUM($B$2:$B$9)-B3+C3-B8+C8-B9+C9</f>
-        <v>1.1013571203249441</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="I26">
-        <f t="shared" si="1"/>
-        <v>-0.45835712032494413</v>
+        <f t="shared" si="7"/>
+        <v>-0.21206937600802242</v>
       </c>
       <c r="J26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="7"/>
+        <v>-0.39950249940590737</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="7"/>
+        <v>-0.14828193958413882</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="2"/>
-        <v>0.75051430269417674</v>
-      </c>
-      <c r="K26">
+        <v>0.69210480956670806</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="3"/>
-        <v>-0.10751430269417672</v>
-      </c>
-    </row>
-    <row r="27" spans="6:11" x14ac:dyDescent="0.25">
+        <v>-4.9104809566708041E-2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="4"/>
+        <v>0.66643498844003624</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="5"/>
+        <v>-2.343498844003622E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F27" s="1" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="G27">
         <v>0.67100000000000004</v>
       </c>
       <c r="H27">
-        <f>SUM($B$2:$B$9)-B5+C5-B8+C8-B9+C9</f>
-        <v>0.91976882390406334</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="I27">
-        <f t="shared" si="1"/>
-        <v>-0.2487688239040633</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="J27">
+        <f t="shared" si="7"/>
+        <v>-0.16958160925340451</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="7"/>
+        <v>-0.39950249940590737</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="7"/>
+        <v>-0.14828193958413882</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="2"/>
-        <v>0.71499499963644286</v>
-      </c>
-      <c r="K27">
+        <v>0.70932098822869405</v>
+      </c>
+      <c r="O27">
         <f t="shared" si="3"/>
-        <v>-4.3994999636442822E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="6:11" x14ac:dyDescent="0.25">
+        <v>-3.8320988228694008E-2</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="4"/>
+        <v>0.67025110567270718</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="5"/>
+        <v>7.4889432729285943E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F28" s="1" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="G28">
         <v>0.69</v>
       </c>
       <c r="H28">
-        <f>SUM($B$2:$B$9)-B3+C3-B4+C4-B5+C5-B8+C8</f>
-        <v>0.63131029406138517</v>
+        <f t="shared" si="7"/>
+        <v>-6.6467117674648454E-2</v>
       </c>
       <c r="I28">
-        <f t="shared" si="1"/>
-        <v>5.8689705938614778E-2</v>
+        <f t="shared" si="7"/>
+        <v>-0.21206937600802242</v>
       </c>
       <c r="J28">
+        <f t="shared" si="7"/>
+        <v>-0.16958160925340451</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="7"/>
+        <v>-0.39950249940590737</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
         <f t="shared" si="2"/>
-        <v>0.65278650799896187</v>
-      </c>
-      <c r="K28">
+        <v>0.65654142728239151</v>
+      </c>
+      <c r="O28">
         <f t="shared" si="3"/>
-        <v>3.7213492001038073E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="6:11" x14ac:dyDescent="0.25">
+        <v>3.3458572717608437E-2</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="4"/>
+        <v>0.65848304066648666</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="5"/>
+        <v>3.1516959333513284E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F29" s="1" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="G29">
         <v>0.85499999999999998</v>
       </c>
       <c r="H29">
-        <f>SUM($B$2:$B$9)-B3+C3-B4+C4-B5+C5-B9+C9</f>
-        <v>1.3442849546034297</v>
+        <f t="shared" si="7"/>
+        <v>-6.6467117674648454E-2</v>
       </c>
       <c r="I29">
-        <f t="shared" si="1"/>
-        <v>-0.48928495460342969</v>
+        <f t="shared" si="7"/>
+        <v>-0.21206937600802242</v>
       </c>
       <c r="J29">
+        <f t="shared" si="7"/>
+        <v>-0.16958160925340451</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="7"/>
+        <v>-0.14828193958413882</v>
+      </c>
+      <c r="N29">
         <f t="shared" si="2"/>
-        <v>0.79319371753356283</v>
-      </c>
-      <c r="K29">
+        <v>0.7583367997347602</v>
+      </c>
+      <c r="O29">
         <f t="shared" si="3"/>
-        <v>6.1806282466437157E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="6:11" x14ac:dyDescent="0.25">
+        <v>9.6663200265239779E-2</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="4"/>
+        <v>0.68099252614330319</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="5"/>
+        <v>0.17400747385669679</v>
+      </c>
+    </row>
+    <row r="30" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F30" s="1" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="G30">
         <v>0.64900000000000002</v>
       </c>
       <c r="H30">
-        <f>SUM($B$2:$B$9)-B3+C3-B4+C4-B8+C8-B9+C9</f>
-        <v>0.72264281218273851</v>
+        <f t="shared" si="7"/>
+        <v>-6.6467117674648454E-2</v>
       </c>
       <c r="I30">
-        <f t="shared" si="1"/>
-        <v>-7.3642812182738493E-2</v>
+        <f t="shared" si="7"/>
+        <v>-0.21206937600802242</v>
       </c>
       <c r="J30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="7"/>
+        <v>-0.39950249940590737</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="7"/>
+        <v>-0.14828193958413882</v>
+      </c>
+      <c r="N30">
         <f t="shared" si="2"/>
-        <v>0.67318871663693347</v>
-      </c>
-      <c r="K30">
+        <v>0.6651721213968923</v>
+      </c>
+      <c r="O30">
         <f t="shared" si="3"/>
-        <v>-2.4188716636933449E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="6:11" x14ac:dyDescent="0.25">
+        <v>-1.6172121396892281E-2</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="4"/>
+        <v>0.6604212749525703</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="5"/>
+        <v>-1.1421274952570282E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F31" s="1" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="G31">
         <v>0.69199999999999995</v>
       </c>
       <c r="H31">
-        <f>SUM($B$2:$B$9)+D3+D5+D8+D9</f>
-        <v>0.81851144519436647</v>
+        <f t="shared" si="7"/>
+        <v>-6.6467117674648454E-2</v>
       </c>
       <c r="I31">
-        <f t="shared" si="1"/>
-        <v>-0.12651144519436652</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="J31">
+        <f t="shared" si="7"/>
+        <v>-0.16958160925340451</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="7"/>
+        <v>-0.39950249940590737</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="7"/>
+        <v>-0.14828193958413882</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="2"/>
-        <v>0.69392026991138356</v>
-      </c>
-      <c r="K31">
+        <v>0.68238830005887818</v>
+      </c>
+      <c r="O31">
         <f t="shared" si="3"/>
-        <v>-1.9202699113836097E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="6:11" x14ac:dyDescent="0.25">
+        <v>9.6116999411217652E-3</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="4"/>
+        <v>0.66427153260996596</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="5"/>
+        <v>2.7728467390033984E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F32" s="1" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="G32">
         <v>0.64300000000000002</v>
       </c>
       <c r="H32">
-        <f>SUM($B$2:$B$9)+D4+D5+D8+D9</f>
-        <v>0.5410545157618577</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="I32">
-        <f t="shared" si="1"/>
-        <v>0.10194548423814231</v>
+        <f t="shared" si="7"/>
+        <v>-0.21206937600802242</v>
       </c>
       <c r="J32">
+        <f t="shared" si="7"/>
+        <v>-0.16958160925340451</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="7"/>
+        <v>-0.39950249940590737</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="7"/>
+        <v>-0.14828193958413882</v>
+      </c>
+      <c r="N32">
         <f t="shared" si="2"/>
-        <v>0.63205769086298846</v>
-      </c>
-      <c r="K32">
+        <v>0.62338980038406189</v>
+      </c>
+      <c r="O32">
         <f t="shared" si="3"/>
-        <v>1.0942309137011552E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="6:11" x14ac:dyDescent="0.25">
+        <v>1.9610199615938129E-2</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="4"/>
+        <v>0.65098911263100556</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="5"/>
+        <v>-7.989112631005546E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F33" s="1" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="G33">
         <v>0.64500000000000002</v>
       </c>
       <c r="H33">
-        <f>SUM($B$2:$B$9)+D3+D4+D5+D8+D9</f>
-        <v>0.43979713705216128</v>
+        <f t="shared" si="7"/>
+        <v>-6.6467117674648454E-2</v>
       </c>
       <c r="I33">
-        <f t="shared" si="1"/>
-        <v>0.20520286294783874</v>
+        <f t="shared" si="7"/>
+        <v>-0.21206937600802242</v>
       </c>
       <c r="J33">
+        <f t="shared" si="7"/>
+        <v>-0.16958160925340451</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="7"/>
+        <v>-0.39950249940590737</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="7"/>
+        <v>-0.14828193958413882</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="2"/>
-        <v>0.60821069150545348</v>
-      </c>
-      <c r="K33">
+        <v>0.59645711221424602</v>
+      </c>
+      <c r="O33">
         <f t="shared" si="3"/>
-        <v>3.6789308494546535E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="6:11" x14ac:dyDescent="0.25">
+        <v>4.8542887785753996E-2</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="4"/>
+        <v>0.64484533168448721</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="5"/>
+        <v>1.5466831551280702E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F34" s="1" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="G34">
         <v>0.90900000000000003</v>
       </c>
       <c r="H34">
-        <f>SUM($B$2:$B$9)+D6</f>
-        <v>2.2330674361973744</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="I34">
-        <f>G34-H34</f>
-        <v>-1.3240674361973743</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="J34">
-        <f>0.5*(1+TANH(0.5*H34))</f>
-        <v>0.90317992581162287</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="K34">
-        <f>G34-J34</f>
-        <v>5.8200741883771556E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="6:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-8.4426772487166707E-2</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>0.96579000239319657</v>
+      </c>
+      <c r="O34">
+        <f t="shared" ref="O34:O50" si="8">G34-N34</f>
+        <v>-5.6790002393196537E-2</v>
+      </c>
+      <c r="P34">
+        <f>0.5*(1+TANH(0.5*N34))</f>
+        <v>0.72427956115402414</v>
+      </c>
+      <c r="Q34">
+        <f>G34-P34</f>
+        <v>0.18472043884597589</v>
+      </c>
+    </row>
+    <row r="35" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F35" s="1" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="G35">
         <v>0.92300000000000004</v>
       </c>
       <c r="H35">
-        <f>SUM($B$2:$B$9)+D3+D6</f>
-        <v>2.1318100574876775</v>
+        <f t="shared" si="7"/>
+        <v>-6.6467117674648454E-2</v>
       </c>
       <c r="I35">
-        <f>G35-H35</f>
-        <v>-1.2088100574876774</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="J35">
-        <f t="shared" ref="J35:J50" si="4">0.5*(1+TANH(0.5*H35))</f>
-        <v>0.89395672073804877</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="K35">
-        <f t="shared" ref="K35:K50" si="5">G35-J35</f>
-        <v>2.9043279261951271E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="6:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-8.4426772487166707E-2</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>0.9388573142233807</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="8"/>
+        <v>-1.5857314223380659E-2</v>
+      </c>
+      <c r="P35">
+        <f t="shared" ref="P35:P50" si="9">0.5*(1+TANH(0.5*N35))</f>
+        <v>0.7188687824370712</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" ref="Q35:Q50" si="10">G35-P35</f>
+        <v>0.20413121756292885</v>
+      </c>
+    </row>
+    <row r="36" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F36" s="1" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="G36">
         <v>0.85199999999999998</v>
       </c>
       <c r="H36">
-        <f>SUM($B$2:$B$9)+D4+D6</f>
-        <v>1.8543531280551688</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="I36">
-        <f>G36-H36</f>
-        <v>-1.002353128055169</v>
+        <f t="shared" si="7"/>
+        <v>-0.21206937600802242</v>
       </c>
       <c r="J36">
-        <f t="shared" si="4"/>
-        <v>0.86463740040624493</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="K36">
-        <f t="shared" si="5"/>
-        <v>-1.2637400406244947E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="6:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-8.4426772487166707E-2</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>0.87985881454856441</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="8"/>
+        <v>-2.7858814548564426E-2</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="9"/>
+        <v>0.70679296314497231</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="10"/>
+        <v>0.14520703685502767</v>
+      </c>
+    </row>
+    <row r="37" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F37" s="1" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="G37">
         <v>0.85499999999999998</v>
       </c>
       <c r="H37">
-        <f>SUM($B$2:$B$9)+D5+D6</f>
-        <v>1.9502217610667965</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="I37">
-        <f>G37-H37</f>
-        <v>-1.0952217610667965</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="J37">
-        <f t="shared" si="4"/>
-        <v>0.87547082058599157</v>
+        <f t="shared" si="7"/>
+        <v>-0.16958160925340451</v>
       </c>
       <c r="K37">
-        <f t="shared" si="5"/>
-        <v>-2.0470820585991589E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="6:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-8.4426772487166707E-2</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>0.89707499321055018</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="8"/>
+        <v>-4.2074993210550193E-2</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="9"/>
+        <v>0.71034804214122138</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="10"/>
+        <v>0.1446519578587786</v>
+      </c>
+    </row>
+    <row r="38" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F38" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="G38">
         <v>0.77800000000000002</v>
       </c>
       <c r="H38">
-        <f>SUM($B$2:$B$9)+D5+D8</f>
-        <v>1.111281980913287</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="I38">
-        <f>G38-H38</f>
-        <v>-0.33328198091328698</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="J38">
-        <f t="shared" si="4"/>
-        <v>0.75236803505059346</v>
+        <f t="shared" si="7"/>
+        <v>-0.16958160925340451</v>
       </c>
       <c r="K38">
-        <f t="shared" si="5"/>
-        <v>2.563196494940656E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="6:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="7"/>
+        <v>-0.39950249940590737</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="2"/>
+        <v>0.76940530329683954</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="8"/>
+        <v>8.5946967031604871E-3</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="9"/>
+        <v>0.68339223485903899</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="10"/>
+        <v>9.4607765140961031E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F39" s="1" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="G39">
         <v>0.78500000000000003</v>
       </c>
       <c r="H39">
-        <f>SUM($B$2:$B$9)+D6+D8</f>
-        <v>1.3285796186461059</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="I39">
-        <f>G39-H39</f>
-        <v>-0.54357961864610582</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="J39">
-        <f t="shared" si="4"/>
-        <v>0.79060558999823827</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="K39">
-        <f t="shared" si="5"/>
-        <v>-5.6055899982382362E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="6:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-8.4426772487166707E-2</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="7"/>
+        <v>-0.39950249940590737</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>0.80391031487268239</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="8"/>
+        <v>-1.8910314872682354E-2</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="9"/>
+        <v>0.69081031342388599</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="10"/>
+        <v>9.418968657611404E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F40" s="1" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="G40">
         <v>0.879</v>
       </c>
       <c r="H40">
-        <f>SUM($B$2:$B$9)+D3+D4+D6</f>
-        <v>1.7530957493454724</v>
+        <f t="shared" si="7"/>
+        <v>-6.6467117674648454E-2</v>
       </c>
       <c r="I40">
-        <f>G40-H40</f>
-        <v>-0.87409574934547241</v>
+        <f t="shared" si="7"/>
+        <v>-0.21206937600802242</v>
       </c>
       <c r="J40">
-        <f t="shared" si="4"/>
-        <v>0.85234284115294678</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="K40">
-        <f t="shared" si="5"/>
-        <v>2.6657158847053219E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="6:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-8.4426772487166707E-2</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>0.85292612637874854</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="8"/>
+        <v>2.6073873621251464E-2</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="9"/>
+        <v>0.70118060379125646</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="10"/>
+        <v>0.17781939620874354</v>
+      </c>
+    </row>
+    <row r="41" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F41" s="1" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="G41">
         <v>0.94199999999999995</v>
       </c>
       <c r="H41">
-        <f>SUM($B$2:$B$9)+D3+D5+D6</f>
-        <v>1.8489643823571</v>
+        <f t="shared" si="7"/>
+        <v>-6.6467117674648454E-2</v>
       </c>
       <c r="I41">
-        <f>G41-H41</f>
-        <v>-0.90696438235710009</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="J41">
-        <f t="shared" si="4"/>
-        <v>0.86400546375998688</v>
+        <f t="shared" si="7"/>
+        <v>-0.16958160925340451</v>
       </c>
       <c r="K41">
-        <f t="shared" si="5"/>
-        <v>7.7994536240013068E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="6:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-8.4426772487166707E-2</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="2"/>
+        <v>0.87014230504073453</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="8"/>
+        <v>7.1857694959265417E-2</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="9"/>
+        <v>0.70477530785422937</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="10"/>
+        <v>0.23722469214577058</v>
+      </c>
+    </row>
+    <row r="42" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F42" s="1" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="G42">
         <v>0.79500000000000004</v>
       </c>
       <c r="H42">
-        <f>SUM($B$2:$B$9)+D3+D6+D8</f>
-        <v>1.227322239936409</v>
+        <f t="shared" si="7"/>
+        <v>-6.6467117674648454E-2</v>
       </c>
       <c r="I42">
-        <f>G42-H42</f>
-        <v>-0.43232223993640895</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="J42">
-        <f t="shared" si="4"/>
-        <v>0.77334956001925725</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="K42">
-        <f t="shared" si="5"/>
-        <v>2.1650439980742786E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="6:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-8.4426772487166707E-2</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="7"/>
+        <v>-0.39950249940590737</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="2"/>
+        <v>0.77697762670286652</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="8"/>
+        <v>1.802237329713352E-2</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="9"/>
+        <v>0.68502835802884121</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="10"/>
+        <v>0.10997164197115883</v>
+      </c>
+    </row>
+    <row r="43" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F43" s="1" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="G43">
         <v>0.85799999999999998</v>
       </c>
       <c r="H43">
-        <f>SUM($B$2:$B$9)+D4+D5+D6</f>
-        <v>1.5715074529245914</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="I43">
-        <f>G43-H43</f>
-        <v>-0.71350745292459139</v>
+        <f t="shared" si="7"/>
+        <v>-0.21206937600802242</v>
       </c>
       <c r="J43">
-        <f t="shared" si="4"/>
-        <v>0.82799840142475678</v>
+        <f t="shared" si="7"/>
+        <v>-0.16958160925340451</v>
       </c>
       <c r="K43">
-        <f t="shared" si="5"/>
-        <v>3.0001598575243205E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="6:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-8.4426772487166707E-2</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="2"/>
+        <v>0.81114380536591812</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="8"/>
+        <v>4.685619463408186E-2</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="9"/>
+        <v>0.69235318871914764</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="10"/>
+        <v>0.16564681128085235</v>
+      </c>
+    </row>
+    <row r="44" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F44" s="1" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="G44">
         <v>0.72399999999999998</v>
       </c>
       <c r="H44">
-        <f>SUM($B$2:$B$9)+D4+D6+D8</f>
-        <v>0.94986531050390022</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="I44">
-        <f>G44-H44</f>
-        <v>-0.22586531050390024</v>
+        <f t="shared" si="7"/>
+        <v>-0.21206937600802242</v>
       </c>
       <c r="J44">
-        <f t="shared" si="4"/>
-        <v>0.72108809007047969</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="K44">
-        <f t="shared" si="5"/>
-        <v>2.9119099295202844E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="6:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-8.4426772487166707E-2</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="7"/>
+        <v>-0.39950249940590737</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="2"/>
+        <v>0.71797912702805022</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="8"/>
+        <v>6.0208729719497533E-3</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="9"/>
+        <v>0.67216185193211342</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="10"/>
+        <v>5.1838148067886558E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F45" s="1" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="G45">
         <v>0.745</v>
       </c>
       <c r="H45">
-        <f>SUM($B$2:$B$9)+D5+D6+D8</f>
-        <v>1.0457339435155277</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="I45">
-        <f>G45-H45</f>
-        <v>-0.30073394351552774</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="J45">
-        <f t="shared" si="4"/>
-        <v>0.7399548581736537</v>
+        <f t="shared" si="7"/>
+        <v>-0.16958160925340451</v>
       </c>
       <c r="K45">
-        <f t="shared" si="5"/>
-        <v>5.0451418263462999E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="6:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-8.4426772487166707E-2</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="7"/>
+        <v>-0.39950249940590737</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="2"/>
+        <v>0.7351953056900361</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="8"/>
+        <v>9.8046943099638906E-3</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="9"/>
+        <v>0.67594430965734331</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="10"/>
+        <v>6.9055690342656684E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F46" s="1" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="G46">
         <v>0.82499999999999996</v>
       </c>
       <c r="H46">
-        <f>SUM($B$2:$B$9)+D3+D4+D5+D6</f>
-        <v>1.470250074214895</v>
+        <f t="shared" si="7"/>
+        <v>-6.6467117674648454E-2</v>
       </c>
       <c r="I46">
-        <f>G46-H46</f>
-        <v>-0.645250074214895</v>
+        <f t="shared" si="7"/>
+        <v>-0.21206937600802242</v>
       </c>
       <c r="J46">
-        <f t="shared" si="4"/>
-        <v>0.81309539310483481</v>
+        <f t="shared" si="7"/>
+        <v>-0.16958160925340451</v>
       </c>
       <c r="K46">
-        <f t="shared" si="5"/>
-        <v>1.1904606895165148E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="6:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-8.4426772487166707E-2</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="2"/>
+        <v>0.78421111719610226</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="8"/>
+        <v>4.0788882803897697E-2</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="9"/>
+        <v>0.6865869956589632</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="10"/>
+        <v>0.13841300434103676</v>
+      </c>
+    </row>
+    <row r="47" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F47" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="G47">
         <v>0.66500000000000004</v>
       </c>
       <c r="H47">
-        <f>SUM($B$2:$B$9)+D3+D4+D6+D8</f>
-        <v>0.8486079317942038</v>
+        <f t="shared" si="7"/>
+        <v>-6.6467117674648454E-2</v>
       </c>
       <c r="I47">
-        <f>G47-H47</f>
-        <v>-0.18360793179420376</v>
+        <f t="shared" si="7"/>
+        <v>-0.21206937600802242</v>
       </c>
       <c r="J47">
-        <f t="shared" si="4"/>
-        <v>0.70027504289096687</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="K47">
-        <f t="shared" si="5"/>
-        <v>-3.5275042890966835E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="6:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-8.4426772487166707E-2</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="7"/>
+        <v>-0.39950249940590737</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="2"/>
+        <v>0.69104643885823436</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="8"/>
+        <v>-2.6046438858234322E-2</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="9"/>
+        <v>0.66619967184322271</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="10"/>
+        <v>-1.1996718432226716E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F48" s="1" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="G48">
         <v>0.68600000000000005</v>
       </c>
       <c r="H48">
-        <f>SUM($B$2:$B$9)+D3+D5+D6+D8</f>
-        <v>0.94447656480583142</v>
+        <f t="shared" si="7"/>
+        <v>-6.6467117674648454E-2</v>
       </c>
       <c r="I48">
-        <f>G48-H48</f>
-        <v>-0.25847656480583137</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="J48">
-        <f t="shared" si="4"/>
-        <v>0.72000301511261933</v>
+        <f t="shared" si="7"/>
+        <v>-0.16958160925340451</v>
       </c>
       <c r="K48">
-        <f t="shared" si="5"/>
-        <v>-3.4003015112619273E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="6:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-8.4426772487166707E-2</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="7"/>
+        <v>-0.39950249940590737</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="2"/>
+        <v>0.70826261752022035</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="8"/>
+        <v>-2.2262617520220296E-2</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="9"/>
+        <v>0.67001714820050706</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="10"/>
+        <v>1.5982851799492992E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F49" s="1" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="G49">
         <v>0.64</v>
       </c>
       <c r="H49">
-        <f>SUM($B$2:$B$9)+D4+D5+D6+D8</f>
-        <v>0.66701963537332276</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="I49">
-        <f>G49-H49</f>
-        <v>-2.7019635373322748E-2</v>
+        <f t="shared" si="7"/>
+        <v>-0.21206937600802242</v>
       </c>
       <c r="J49">
-        <f t="shared" si="4"/>
-        <v>0.66083548481979604</v>
+        <f t="shared" si="7"/>
+        <v>-0.16958160925340451</v>
       </c>
       <c r="K49">
-        <f t="shared" si="5"/>
-        <v>-2.0835484819796024E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="6:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-8.4426772487166707E-2</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="7"/>
+        <v>-0.39950249940590737</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="2"/>
+        <v>0.64926411784540394</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="8"/>
+        <v>-9.2641178454039297E-3</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="9"/>
+        <v>0.65684461415688555</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="10"/>
+        <v>-1.684461415688554E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F50" s="1" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="G50">
         <v>0.622</v>
       </c>
       <c r="H50">
-        <f>SUM($B$2:$B$9)+D3+D4+D5+D6+D8</f>
-        <v>0.56576225666362634</v>
+        <f t="shared" si="7"/>
+        <v>-6.6467117674648454E-2</v>
       </c>
       <c r="I50">
-        <f>G50-H50</f>
-        <v>5.6237743336373658E-2</v>
+        <f t="shared" si="7"/>
+        <v>-0.21206937600802242</v>
       </c>
       <c r="J50">
-        <f t="shared" si="4"/>
-        <v>0.63778476410655127</v>
+        <f t="shared" si="7"/>
+        <v>-0.16958160925340451</v>
       </c>
       <c r="K50">
-        <f t="shared" si="5"/>
-        <v>-1.5784764106551274E-2</v>
+        <f t="shared" si="7"/>
+        <v>-8.4426772487166707E-2</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="7"/>
+        <v>-0.39950249940590737</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="2"/>
+        <v>0.62233142967558808</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="8"/>
+        <v>-3.3142967558807968E-4</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="9"/>
+        <v>0.65074860997416417</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="10"/>
+        <v>-2.8748609974164174E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5514,7 +9229,7 @@
         <v>0.91883571670953423</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I50" si="1">G3-H3</f>
+        <f t="shared" ref="I3:I33" si="1">G3-H3</f>
         <v>-4.0835716709534231E-2</v>
       </c>
     </row>
@@ -6088,7 +9803,7 @@
         <v>0.92689459300032317</v>
       </c>
       <c r="I34">
-        <f>G34-H34</f>
+        <f t="shared" ref="I34:I50" si="2">G34-H34</f>
         <v>-1.7894593000323145E-2</v>
       </c>
     </row>
@@ -6104,7 +9819,7 @@
         <v>0.91220565309829382</v>
       </c>
       <c r="I35">
-        <f>G35-H35</f>
+        <f t="shared" si="2"/>
         <v>1.079434690170622E-2</v>
       </c>
     </row>
@@ -6120,7 +9835,7 @@
         <v>0.86549522919530886</v>
       </c>
       <c r="I36">
-        <f>G36-H36</f>
+        <f t="shared" si="2"/>
         <v>-1.3495229195308878E-2</v>
       </c>
     </row>
@@ -6136,7 +9851,7 @@
         <v>0.88063524363825274</v>
       </c>
       <c r="I37">
-        <f>G37-H37</f>
+        <f t="shared" si="2"/>
         <v>-2.5635243638252758E-2</v>
       </c>
     </row>
@@ -6152,7 +9867,7 @@
         <v>0.7439470942578964</v>
       </c>
       <c r="I38">
-        <f>G38-H38</f>
+        <f t="shared" si="2"/>
         <v>3.4052905742103623E-2</v>
       </c>
     </row>
@@ -6168,7 +9883,7 @@
         <v>0.78357638000872643</v>
       </c>
       <c r="I39">
-        <f>G39-H39</f>
+        <f t="shared" si="2"/>
         <v>1.4236199912736058E-3</v>
       </c>
     </row>
@@ -6184,7 +9899,7 @@
         <v>0.85080628929327951</v>
       </c>
       <c r="I40">
-        <f>G40-H40</f>
+        <f t="shared" si="2"/>
         <v>2.8193710706720498E-2</v>
       </c>
     </row>
@@ -6200,7 +9915,7 @@
         <v>0.86594630373622339</v>
       </c>
       <c r="I41">
-        <f>G41-H41</f>
+        <f t="shared" si="2"/>
         <v>7.605369626377656E-2</v>
       </c>
     </row>
@@ -6216,7 +9931,7 @@
         <v>0.76888744010669707</v>
       </c>
       <c r="I42">
-        <f>G42-H42</f>
+        <f t="shared" si="2"/>
         <v>2.6112559893302967E-2</v>
       </c>
     </row>
@@ -6232,7 +9947,7 @@
         <v>0.81923587983323864</v>
       </c>
       <c r="I43">
-        <f>G43-H43</f>
+        <f t="shared" si="2"/>
         <v>3.876412016676134E-2</v>
       </c>
     </row>
@@ -6248,7 +9963,7 @@
         <v>0.72217701620371211</v>
       </c>
       <c r="I44">
-        <f>G44-H44</f>
+        <f t="shared" si="2"/>
         <v>1.8229837962878692E-3</v>
       </c>
     </row>
@@ -6264,7 +9979,7 @@
         <v>0.73731703064665599</v>
       </c>
       <c r="I45">
-        <f>G45-H45</f>
+        <f t="shared" si="2"/>
         <v>7.6829693533440047E-3</v>
       </c>
     </row>
@@ -6280,7 +9995,7 @@
         <v>0.80454693993120929</v>
       </c>
       <c r="I46">
-        <f>G46-H46</f>
+        <f t="shared" si="2"/>
         <v>2.0453060068790663E-2</v>
       </c>
     </row>
@@ -6296,7 +10011,7 @@
         <v>0.70748807630168276</v>
       </c>
       <c r="I47">
-        <f>G47-H47</f>
+        <f t="shared" si="2"/>
         <v>-4.248807630168272E-2</v>
       </c>
     </row>
@@ -6312,7 +10027,7 @@
         <v>0.72262809074462664</v>
       </c>
       <c r="I48">
-        <f>G48-H48</f>
+        <f t="shared" si="2"/>
         <v>-3.6628090744626585E-2</v>
       </c>
     </row>
@@ -6328,7 +10043,7 @@
         <v>0.6759176668416419</v>
       </c>
       <c r="I49">
-        <f>G49-H49</f>
+        <f t="shared" si="2"/>
         <v>-3.5917666841641882E-2</v>
       </c>
     </row>
@@ -6344,7 +10059,7 @@
         <v>0.66122872693961254</v>
       </c>
       <c r="I50">
-        <f>G50-H50</f>
+        <f t="shared" si="2"/>
         <v>-3.9228726939612546E-2</v>
       </c>
     </row>
